--- a/TemplateData/header.xlsx
+++ b/TemplateData/header.xlsx
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
@@ -1407,6 +1407,79 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>622</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GLD30240</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>BLR102501IV0017</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TemplateData/header.xlsx
+++ b/TemplateData/header.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19635" windowHeight="7800" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18705" windowHeight="8400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1228,13 +1228,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col width="9.571428571428569" customWidth="1" style="1" min="1" max="1"/>
     <col width="7" customWidth="1" style="1" min="2" max="2"/>
@@ -1407,79 +1407,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>622</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GLD30240</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20250108</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20250108</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20250107</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>BLR102501IV0017</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
